--- a/HospitalManagementSystem/HospitalManagementSystem/target/classes/Accounts.xlsx
+++ b/HospitalManagementSystem/HospitalManagementSystem/target/classes/Accounts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NTU\Y2S1\SC2002\resources for project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NTU\Y2S1\SC2002\HospitalManagementSystem_Final\HospitalManagementSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E217DBD1-3152-4F2F-9C86-A675E350CFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F120E-B360-4266-9334-B7D4C0CF21F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,28 +34,28 @@
     <t>admin01</t>
   </si>
   <si>
+    <t>ADMINISTRATOR</t>
+  </si>
+  <si>
+    <t>patient01</t>
+  </si>
+  <si>
+    <t>PATIENT</t>
+  </si>
+  <si>
+    <t>doctor01</t>
+  </si>
+  <si>
+    <t>DOCTOR</t>
+  </si>
+  <si>
+    <t>pharmacist01</t>
+  </si>
+  <si>
+    <t>PHARMACIST</t>
+  </si>
+  <si>
     <t>2B2qSIrkms5pHRaGqITz7Q==</t>
-  </si>
-  <si>
-    <t>ADMINISTRATOR</t>
-  </si>
-  <si>
-    <t>patient01</t>
-  </si>
-  <si>
-    <t>PATIENT</t>
-  </si>
-  <si>
-    <t>doctor01</t>
-  </si>
-  <si>
-    <t>DOCTOR</t>
-  </si>
-  <si>
-    <t>pharmacist01</t>
-  </si>
-  <si>
-    <t>PHARMACIST</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,43 +451,43 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
